--- a/Script/Dataframes/df_Declaracion.xlsx
+++ b/Script/Dataframes/df_Declaracion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:O181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Fecha_y_hora_presentacion</t>
+          <t>Fecha y hora presentacion</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Num_de_Operacion</t>
+          <t>Num de Operacion</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Periodo_de_declaracion</t>
+          <t>Periodo de declaracion</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,17 +466,17 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>total_a_pagar</t>
+          <t>total a pagar</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Vigente_hasta</t>
+          <t>Vigente hasta</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Linea_de_Captura</t>
+          <t>Linea de Captura</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,15 +486,25 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Impuesto_a_favor</t>
+          <t>Tipo Social</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Impuestoafavor</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Concepto de Pago</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Numero de Concepto</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
@@ -543,25 +553,31 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2L7T 8300 3852 8442</t>
+          <t>423 2L7T 8300 3852 8442</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA LOGISTICS SC </t>
+          <t xml:space="preserve">INTEREXPORTA LOGISTICS SC </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION COMP ISR INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -610,25 +626,31 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1HDY 5200 3802 9249</t>
+          <t>423 1HDY 5200 3802 9249</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: SEBASTIAN DUARTE GRIEGO </t>
+          <t xml:space="preserve">SEBASTIAN DUARTE GRIEGO </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION COMP ISR RET SALARIOS SEBASTIAN DUARTE ENERO 2023.pdf</t>
         </is>
@@ -677,25 +699,31 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2EXU 5900 3852 7270</t>
+          <t>423 2EXU 5900 3852 7270</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: SEBASTIAN DUARTE GRIEGO </t>
+          <t xml:space="preserve">SEBASTIAN DUARTE GRIEGO </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION COMP ISR RET SALARIOS SEBASTIAN DUARTE MARZO 2023.pdf</t>
         </is>
@@ -744,25 +772,31 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2U62 6100 3861 7203</t>
+          <t>423 2U62 6100 3861 7203</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: SEBASTIAN DUARTE GRIEGO </t>
+          <t xml:space="preserve">SEBASTIAN DUARTE GRIEGO </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION COMP2 ISR RET SALARIOS SEBASTIAN DUARTE MARZO 2023.pdf</t>
         </is>
@@ -811,25 +845,31 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11PP 1200 3771 7424</t>
+          <t>423 11PP 1200 3771 7424</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR  IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -878,25 +918,31 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11PP 1200 3771 7424</t>
+          <t>423 11PP 1200 3771 7424</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR  IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -945,25 +991,31 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11PP 1200 3771 7424</t>
+          <t>423 11PP 1200 3771 7424</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR  IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -1012,25 +1064,31 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 29Z4 5700 3836 7411</t>
+          <t>423 29Z4 5700 3836 7411</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA LOGISTICS SC </t>
+          <t xml:space="preserve">INTEREXPORTA LOGISTICS SC </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -1079,25 +1137,31 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 29Z4 5700 3836 7411</t>
+          <t>423 29Z4 5700 3836 7411</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA LOGISTICS SC </t>
+          <t xml:space="preserve">INTEREXPORTA LOGISTICS SC </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -1134,37 +1198,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>29,739</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>ISR RÉGIMEN DE ACTIVIDADES AGRÍCOLAS, GANADERAS, SILVÍCOLAS Y PESQUERAS. IMPUESTO PROPIO</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL ABRIL 2023.pdf</t>
         </is>
@@ -1201,37 +1263,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>29,739</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>ISR PERSONAS MORALES. RÉGIMEN DE ACTIVIDADES AGRÍCOLAS, GANADERAS, SILVÍCOLAS Y PESQUERAS. IMPUESTO DE SUS INTEGRANTES</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL ABRIL 2023.pdf</t>
         </is>
@@ -1268,37 +1328,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>29,739</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL ABRIL 2023.pdf</t>
         </is>
@@ -1347,25 +1405,35 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1P69 3600 3804 4497</t>
+          <t>423 1P69 3600 3804 4497</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>10,378</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>ISR RÉGIMEN DE ACTIVIDADES AGRÍCOLAS, GANADERAS, SILVÍCOLAS Y PESQUERAS. IMPUESTO PROPIO</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -1414,25 +1482,35 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1P69 3600 3804 4497</t>
+          <t>423 1P69 3600 3804 4497</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>10,378</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>ISR PERSONAS MORALES. RÉGIMEN DE ACTIVIDADES AGRÍCOLAS, GANADERAS, SILVÍCOLAS Y PESQUERAS. IMPUESTO DE SUS INTEGRANTES</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -1481,25 +1559,35 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1P69 3600 3804 4497</t>
+          <t>423 1P69 3600 3804 4497</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>10,378</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -1548,25 +1636,35 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1P69 3600 3804 4497</t>
+          <t>423 1P69 3600 3804 4497</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>10,378</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -1615,25 +1713,35 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 191A 1000 3790 9443</t>
+          <t>423 191A 1000 3790 9443</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>34,236</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>ISR RÉGIMEN DE ACTIVIDADES AGRÍCOLAS, GANADERAS, SILVÍCOLAS Y PESQUERAS. IMPUESTO PROPIO</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -1682,25 +1790,35 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 191A 1000 3790 9443</t>
+          <t>423 191A 1000 3790 9443</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>34,236</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>ISR PERSONAS MORALES. RÉGIMEN DE ACTIVIDADES AGRÍCOLAS, GANADERAS, SILVÍCOLAS Y PESQUERAS. IMPUESTO DE SUS INTEGRANTES</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -1749,25 +1867,35 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 191A 1000 3790 9443</t>
+          <t>423 191A 1000 3790 9443</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>34,236</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -1816,25 +1944,35 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 191A 1000 3790 9443</t>
+          <t>423 191A 1000 3790 9443</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>34,236</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -1883,25 +2021,31 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2ABH 1100 3830 1447</t>
+          <t>423 2ABH 1100 3830 1447</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -1950,25 +2094,31 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2ABH 1100 3830 1447</t>
+          <t>423 2ABH 1100 3830 1447</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -2017,25 +2167,31 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2ABH 1100 3830 1447</t>
+          <t>423 2ABH 1100 3830 1447</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -2084,25 +2240,31 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZS0 0900 3771 5427</t>
+          <t>423 0ZS0 0900 3771 5427</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS OBRAS Y DESARROLLOS ENERO 2023.pdf</t>
         </is>
@@ -2151,25 +2313,31 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZS0 0900 3771 5427</t>
+          <t>423 0ZS0 0900 3771 5427</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS OBRAS Y DESARROLLOS ENERO 2023.pdf</t>
         </is>
@@ -2218,25 +2386,31 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZS0 0900 3771 5427</t>
+          <t>423 0ZS0 0900 3771 5427</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS OBRAS Y DESARROLLOS ENERO 2023.pdf</t>
         </is>
@@ -2285,25 +2459,31 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 13ID 3100 3773 4479</t>
+          <t>423 13ID 3100 3773 4479</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CONMED LOGISTICS SA DE CV </t>
+          <t xml:space="preserve">CONMED LOGISTICS SA DE CV </t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -2352,25 +2532,31 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 13ID 3100 3773 4479</t>
+          <t>423 13ID 3100 3773 4479</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CONMED LOGISTICS SA DE CV </t>
+          <t xml:space="preserve">CONMED LOGISTICS SA DE CV </t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -2419,25 +2605,31 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 13ID 3100 3773 4479</t>
+          <t>423 13ID 3100 3773 4479</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CONMED LOGISTICS SA DE CV </t>
+          <t xml:space="preserve">CONMED LOGISTICS SA DE CV </t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -2486,25 +2678,31 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Linea de Captura : 422 5EEP 9000 3681 9422</t>
+          <t>422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CUADRAS ASESORES PROFESIONALES SC </t>
+          <t xml:space="preserve">CUADRAS ASESORES PROFESIONALES SC </t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas morales</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr iva cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -2553,25 +2751,31 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Linea de Captura : 422 5EEP 9000 3681 9422</t>
+          <t>422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CUADRAS ASESORES PROFESIONALES SC </t>
+          <t xml:space="preserve">CUADRAS ASESORES PROFESIONALES SC </t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr iva cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -2620,25 +2824,31 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Linea de Captura : 422 5EEP 9000 3681 9422</t>
+          <t>422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CUADRAS ASESORES PROFESIONALES SC </t>
+          <t xml:space="preserve">CUADRAS ASESORES PROFESIONALES SC </t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
         <is>
           <t>IVA simplificado de confianza</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr iva cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -2687,25 +2897,31 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1198 8600 3771 7460</t>
+          <t>423 1198 8600 3771 7460</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -2754,25 +2970,31 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1198 8600 3771 7460</t>
+          <t>423 1198 8600 3771 7460</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -2821,25 +3043,31 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1198 8600 3771 7460</t>
+          <t>423 1198 8600 3771 7460</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -2888,25 +3116,31 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OUN 1600 3803 4443</t>
+          <t>423 1OUN 1600 3803 4443</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -2955,25 +3189,31 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OUN 1600 3803 4443</t>
+          <t>423 1OUN 1600 3803 4443</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -3022,25 +3262,31 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OUN 1600 3803 4443</t>
+          <t>423 1OUN 1600 3803 4443</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -3089,25 +3335,31 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 29GW 7100 3830 1431</t>
+          <t>423 29GW 7100 3830 1431</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -3156,25 +3408,31 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 29GW 7100 3830 1431</t>
+          <t>423 29GW 7100 3830 1431</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -3223,25 +3481,31 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 29GW 7100 3830 1431</t>
+          <t>423 29GW 7100 3830 1431</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -3290,25 +3554,31 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11WY 3500 3771 3426</t>
+          <t>423 11WY 3500 3771 3426</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DSF 88 COMERCIALIZADORA S A P I DE CV </t>
+          <t xml:space="preserve">DSF 88 COMERCIALIZADORA S A P I DE CV </t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas morales</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -3357,25 +3627,31 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11WY 3500 3771 3426</t>
+          <t>423 11WY 3500 3771 3426</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DSF 88 COMERCIALIZADORA S A P I DE CV </t>
+          <t xml:space="preserve">DSF 88 COMERCIALIZADORA S A P I DE CV </t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -3424,25 +3700,31 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11WY 3500 3771 3426</t>
+          <t>423 11WY 3500 3771 3426</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DSF 88 COMERCIALIZADORA S A P I DE CV </t>
+          <t xml:space="preserve">DSF 88 COMERCIALIZADORA S A P I DE CV </t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -3491,25 +3773,31 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11WY 3500 3771 3426</t>
+          <t>423 11WY 3500 3771 3426</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DSF 88 COMERCIALIZADORA S A P I DE CV </t>
+          <t xml:space="preserve">DSF 88 COMERCIALIZADORA S A P I DE CV </t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
         <is>
           <t>IVA simplificado de confianza</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -3546,37 +3834,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: FAST LINKS MEXICO SA DE CV </t>
+          <t xml:space="preserve">FAST LINKS MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
         <is>
           <t>ISR PERSONAS MORALES. RÉGIMEN DE LOS COORDINADOS. IMPUESTO PROPIO</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -3613,37 +3895,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: FAST LINKS MEXICO SA DE CV </t>
+          <t xml:space="preserve">FAST LINKS MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -3680,37 +3956,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: FAST LINKS MEXICO SA DE CV </t>
+          <t xml:space="preserve">FAST LINKS MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -3759,25 +4029,31 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OAX 0500 3803 7450</t>
+          <t>423 1OAX 0500 3803 7450</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FEBRERO 2023.pdf</t>
         </is>
@@ -3826,25 +4102,31 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OAX 0500 3803 7450</t>
+          <t>423 1OAX 0500 3803 7450</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FEBRERO 2023.pdf</t>
         </is>
@@ -3893,25 +4175,31 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OAX 0500 3803 7450</t>
+          <t>423 1OAX 0500 3803 7450</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FEBRERO 2023.pdf</t>
         </is>
@@ -3960,25 +4248,35 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 21WZ 6900 3845 2429</t>
+          <t>423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>13,917</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas morales</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4027,25 +4325,35 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 21WZ 6900 3845 2429</t>
+          <t>423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
           <t>13,917</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4094,25 +4402,35 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 21WZ 6900 3845 2429</t>
+          <t>423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>13,917</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>ISR retenciones por asimilados a salarios</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4161,25 +4479,35 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 21WZ 6900 3845 2429</t>
+          <t>423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
           <t>13,917</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4228,25 +4556,35 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 21WZ 6900 3845 2429</t>
+          <t>423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
           <t>13,917</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>IVA simplificado de confianza</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4295,25 +4633,35 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2M76 7900 3852 3465</t>
+          <t>423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
           <t>12,307</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas morales</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -4362,25 +4710,35 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2M76 7900 3852 3465</t>
+          <t>423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>12,307</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -4429,25 +4787,35 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2M76 7900 3852 3465</t>
+          <t>423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
           <t>12,307</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>ISR retenciones por asimilados a salarios</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -4496,25 +4864,35 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2M76 7900 3852 3465</t>
+          <t>423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>12,307</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -4563,25 +4941,35 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2M76 7900 3852 3465</t>
+          <t>423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
           <t>12,307</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>IVA simplificado de confianza</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -4618,37 +5006,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: VILLAVICENCIO GOMEZ IVAN ERNESTO </t>
+          <t xml:space="preserve">VILLAVICENCIO GOMEZ IVAN ERNESTO </t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
         <is>
           <t>ISR PERSONAS FÍSICAS, ACTIVIDAD EMPRESARIAL Y PROFESIONAL</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA IVAN ERNESTO VILLAVICENCIO GOMEZ ENERO 2023.pdf</t>
         </is>
@@ -4685,37 +5067,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: VILLAVICENCIO GOMEZ IVAN ERNESTO </t>
+          <t xml:space="preserve">VILLAVICENCIO GOMEZ IVAN ERNESTO </t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA IVAN ERNESTO VILLAVICENCIO GOMEZ ENERO 2023.pdf</t>
         </is>
@@ -4752,37 +5128,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: MORA ALVAREZ JAIME </t>
+          <t xml:space="preserve">MORA ALVAREZ JAIME </t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
         <is>
           <t>ISR PERSONAS FÍSICAS, ACTIVIDAD EMPRESARIAL Y PROFESIONAL</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA JAIME MORA ALAVAREZ ENERO 2023.pdf</t>
         </is>
@@ -4819,37 +5189,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: MORA ALVAREZ JAIME </t>
+          <t xml:space="preserve">MORA ALVAREZ JAIME </t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA JAIME MORA ALAVAREZ ENERO 2023.pdf</t>
         </is>
@@ -4886,37 +5250,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: LA LIEBRE MAYOREO S DE RL DE CV </t>
+          <t xml:space="preserve">LA LIEBRE MAYOREO S DE RL DE CV </t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas morales</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA LA LIEBRE ENERO 2023.pdf</t>
         </is>
@@ -4953,37 +5311,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: LA LIEBRE MAYOREO S DE RL DE CV </t>
+          <t xml:space="preserve">LA LIEBRE MAYOREO S DE RL DE CV </t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA LA LIEBRE ENERO 2023.pdf</t>
         </is>
@@ -5020,37 +5372,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: LA LIEBRE MAYOREO S DE RL DE CV </t>
+          <t xml:space="preserve">LA LIEBRE MAYOREO S DE RL DE CV </t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
         <is>
           <t>IVA simplificado de confianza</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA LA LIEBRE ENERO 2023.pdf</t>
         </is>
@@ -5087,37 +5433,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: LARES CHAVEZ MARISELA </t>
+          <t xml:space="preserve">LARES CHAVEZ MARISELA </t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>1,882</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>ISR PERSONAS FÍSICAS, ACTIVIDAD EMPRESARIAL Y PROFESIONAL</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MARISELA LARES CHAVEZ ENERO 2023.pdf</t>
         </is>
@@ -5154,37 +5498,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: LARES CHAVEZ MARISELA </t>
+          <t xml:space="preserve">LARES CHAVEZ MARISELA </t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>1,882</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MARISELA LARES CHAVEZ ENERO 2023.pdf</t>
         </is>
@@ -5233,25 +5575,31 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 110R 0700 3772 1489</t>
+          <t>423 110R 0700 3772 1489</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MATRAZ LAB S DE RL DE CV </t>
+          <t xml:space="preserve">MATRAZ LAB S DE RL DE CV </t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -5300,25 +5648,31 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 110R 0700 3772 1489</t>
+          <t>423 110R 0700 3772 1489</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MATRAZ LAB S DE RL DE CV </t>
+          <t xml:space="preserve">MATRAZ LAB S DE RL DE CV </t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -5367,25 +5721,31 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 110R 0700 3772 1489</t>
+          <t>423 110R 0700 3772 1489</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MATRAZ LAB S DE RL DE CV </t>
+          <t xml:space="preserve">MATRAZ LAB S DE RL DE CV </t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -5434,25 +5794,31 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11XW 8300 3772 7460</t>
+          <t>423 11XW 8300 3772 7460</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: O AND P DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">O AND P DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -5501,25 +5867,31 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11XW 8300 3772 7460</t>
+          <t>423 11XW 8300 3772 7460</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: O AND P DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">O AND P DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -5568,25 +5940,31 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11XW 8300 3772 7460</t>
+          <t>423 11XW 8300 3772 7460</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: O AND P DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">O AND P DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
         <is>
           <t>ISR retenciones por asimilados a salarios</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -5635,25 +6013,31 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11XW 8300 3772 7460</t>
+          <t>423 11XW 8300 3772 7460</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: O AND P DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">O AND P DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -5702,25 +6086,31 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZRO 4200 3771 4455</t>
+          <t>423 0ZRO 4200 3771 4455</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
+          <t xml:space="preserve">OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -5769,25 +6159,31 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZRO 4200 3771 4455</t>
+          <t>423 0ZRO 4200 3771 4455</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
+          <t xml:space="preserve">OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -5836,25 +6232,31 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZRO 4200 3771 4455</t>
+          <t>423 0ZRO 4200 3771 4455</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
+          <t xml:space="preserve">OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -5903,25 +6305,31 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12S9 4200 3777 3298</t>
+          <t>423 12S9 4200 3777 3298</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: MORA ALVAREZ RIGOBERTO </t>
+          <t xml:space="preserve">MORA ALVAREZ RIGOBERTO </t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
         <is>
           <t>ISR PERSONAS FÍSICAS, ACTIVIDAD EMPRESARIAL Y PROFESIONAL</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA RIGOBERTO MORA ENERO 2023.pdf</t>
         </is>
@@ -5970,25 +6378,31 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12S9 4200 3777 3298</t>
+          <t>423 12S9 4200 3777 3298</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: MORA ALVAREZ RIGOBERTO </t>
+          <t xml:space="preserve">MORA ALVAREZ RIGOBERTO </t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA RIGOBERTO MORA ENERO 2023.pdf</t>
         </is>
@@ -6037,25 +6451,31 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12F2 3200 3773 4478</t>
+          <t>423 12F2 3200 3773 4478</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: ROM FILM PLASTIC DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">ROM FILM PLASTIC DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -6104,25 +6524,31 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12F2 3200 3773 4478</t>
+          <t>423 12F2 3200 3773 4478</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: ROM FILM PLASTIC DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">ROM FILM PLASTIC DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -6171,25 +6597,31 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12F2 3200 3773 4478</t>
+          <t>423 12F2 3200 3773 4478</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: ROM FILM PLASTIC DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">ROM FILM PLASTIC DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -6238,25 +6670,35 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZT2 2300 3771 7490</t>
+          <t>423 0ZT2 2300 3771 7490</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SEFRAPESTS SA DE CV </t>
+          <t xml:space="preserve">SEFRAPESTS SA DE CV </t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
           <t>15,355</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -6305,25 +6747,35 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZT2 2300 3771 7490</t>
+          <t>423 0ZT2 2300 3771 7490</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SEFRAPESTS SA DE CV </t>
+          <t xml:space="preserve">SEFRAPESTS SA DE CV </t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
           <t>15,355</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -6372,25 +6824,31 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0YWX 1800 3772 4401</t>
+          <t>423 0YWX 1800 3772 4401</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
+          <t xml:space="preserve">SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -6439,25 +6897,31 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0YWX 1800 3772 4401</t>
+          <t>423 0YWX 1800 3772 4401</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
+          <t xml:space="preserve">SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -6506,25 +6970,31 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0YWX 1800 3772 4401</t>
+          <t>423 0YWX 1800 3772 4401</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
+          <t xml:space="preserve">SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>ISR retenciones por asimilados a salarios</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -6573,25 +7043,31 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0YWX 1800 3772 4401</t>
+          <t>423 0YWX 1800 3772 4401</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
+          <t xml:space="preserve">SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -6640,25 +7116,31 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0XSA 3600 3772 4431</t>
+          <t>423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
+          <t xml:space="preserve">DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas morales</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -6707,25 +7189,31 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0XSA 3600 3772 4431</t>
+          <t>423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
+          <t xml:space="preserve">DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -6774,25 +7262,31 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0XSA 3600 3772 4431</t>
+          <t>423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
+          <t xml:space="preserve">DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>ISR retenciones por asimilados a salarios</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -6841,25 +7335,31 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0XSA 3600 3772 4431</t>
+          <t>423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
+          <t xml:space="preserve">DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -6908,25 +7408,31 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0XSA 3600 3772 4431</t>
+          <t>423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
+          <t xml:space="preserve">DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>IVA simplificado de confianza</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -6975,25 +7481,31 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0TPV 5400 3771 4456</t>
+          <t>423 0TPV 5400 3771 4456</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MAKO INTERNACIONAL SA DE CV </t>
+          <t xml:space="preserve">MAKO INTERNACIONAL SA DE CV </t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -7042,25 +7554,31 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0TPV 5400 3771 4456</t>
+          <t>423 0TPV 5400 3771 4456</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MAKO INTERNACIONAL SA DE CV </t>
+          <t xml:space="preserve">MAKO INTERNACIONAL SA DE CV </t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -7109,25 +7627,31 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0TPV 5400 3771 4456</t>
+          <t>423 0TPV 5400 3771 4456</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MAKO INTERNACIONAL SA DE CV </t>
+          <t xml:space="preserve">MAKO INTERNACIONAL SA DE CV </t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>ISR retenciones por asimilados a salarios</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -7176,25 +7700,31 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0TPV 5400 3771 4456</t>
+          <t>423 0TPV 5400 3771 4456</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MAKO INTERNACIONAL SA DE CV </t>
+          <t xml:space="preserve">MAKO INTERNACIONAL SA DE CV </t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -7231,37 +7761,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: JAZMIN ALEJANDRA OJEDA NAVARRO </t>
+          <t xml:space="preserve">JAZMIN ALEJANDRA OJEDA NAVARRO </t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas físicas</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR PF JAZMIN ALEJANDRA OJEDA ENERO 2023.pdf</t>
         </is>
@@ -7298,37 +7822,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: JAZMIN ALEJANDRA OJEDA NAVARRO </t>
+          <t xml:space="preserve">JAZMIN ALEJANDRA OJEDA NAVARRO </t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>IVA simplificado de confianza</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR PF JAZMIN ALEJANDRA OJEDA ENERO 2023.pdf</t>
         </is>
@@ -7377,25 +7895,31 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0TA4 4300 3772 1258</t>
+          <t>423 0TA4 4300 3772 1258</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: CHAVEZ HERNANDEZ TERESA ISABEL </t>
+          <t xml:space="preserve">CHAVEZ HERNANDEZ TERESA ISABEL </t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>ISR PERSONAS FÍSICAS, ACTIVIDAD EMPRESARIAL Y PROFESIONAL</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR PF TERESA ISABEL CHAVEZ H ENERO 2023.pdf</t>
         </is>
@@ -7444,25 +7968,31 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0TA4 4300 3772 1258</t>
+          <t>423 0TA4 4300 3772 1258</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: CHAVEZ HERNANDEZ TERESA ISABEL </t>
+          <t xml:space="preserve">CHAVEZ HERNANDEZ TERESA ISABEL </t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR PF TERESA ISABEL CHAVEZ H ENERO 2023.pdf</t>
         </is>
@@ -7511,25 +8041,31 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 190D 6600 3790 3461</t>
+          <t>423 190D 6600 3790 3461</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -7578,25 +8114,31 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZSC 9100 3771 8246</t>
+          <t>423 0ZSC 9100 3771 8246</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: CARLOS ALBERTO HERMOSILLO PEREZ </t>
+          <t xml:space="preserve">CARLOS ALBERTO HERMOSILLO PEREZ </t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET CARLOS ALBERTO HERMOSILLO ENERO 2023.pdf</t>
         </is>
@@ -7645,25 +8187,31 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZRF 7300 3777 4468</t>
+          <t>423 0ZRF 7300 3777 4468</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CODIGO A CONSTRUCTORES SA DE CV </t>
+          <t xml:space="preserve">CODIGO A CONSTRUCTORES SA DE CV </t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret codigo a enero 2023.pdf</t>
         </is>
@@ -7712,25 +8260,31 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZRF 7300 3777 4468</t>
+          <t>423 0ZRF 7300 3777 4468</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CODIGO A CONSTRUCTORES SA DE CV </t>
+          <t xml:space="preserve">CODIGO A CONSTRUCTORES SA DE CV </t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret codigo a enero 2023.pdf</t>
         </is>
@@ -7779,25 +8333,31 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Linea de Captura : 422 5EEP 9000 3681 9422</t>
+          <t>422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CUADRAS ASESORES PROFESIONALES SC </t>
+          <t xml:space="preserve">CUADRAS ASESORES PROFESIONALES SC </t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas morales</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -7846,25 +8406,31 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Linea de Captura : 422 5EEP 9000 3681 9422</t>
+          <t>422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CUADRAS ASESORES PROFESIONALES SC </t>
+          <t xml:space="preserve">CUADRAS ASESORES PROFESIONALES SC </t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -7913,25 +8479,31 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>Linea de Captura : 422 5EEP 9000 3681 9422</t>
+          <t>422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CUADRAS ASESORES PROFESIONALES SC </t>
+          <t xml:space="preserve">CUADRAS ASESORES PROFESIONALES SC </t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>IVA simplificado de confianza</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -7980,25 +8552,31 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11X5 2400 3771 8469</t>
+          <t>423 11X5 2400 3771 8469</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DSF 88 COMERCIALIZADORA S A P I DE CV </t>
+          <t xml:space="preserve">DSF 88 COMERCIALIZADORA S A P I DE CV </t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr">
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET DSF ENERO 2023.pdf</t>
         </is>
@@ -8047,25 +8625,31 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1K3M 1000 3808 9457</t>
+          <t>423 1K3M 1000 3808 9457</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr">
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -8114,25 +8698,31 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 21X1 9900 3845 5414</t>
+          <t>423 21X1 9900 3845 5414</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -8169,37 +8759,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -8248,25 +8832,35 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZS2 3900 3771 7410</t>
+          <t>423 0ZS2 3900 3771 7410</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
           <t>154,649</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -8315,25 +8909,35 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZS2 3900 3771 7410</t>
+          <t>423 0ZS2 3900 3771 7410</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
           <t>154,649</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="M118" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -8382,25 +8986,35 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZS2 3900 3771 7410</t>
+          <t>423 0ZS2 3900 3771 7410</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
           <t>154,649</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR INTERESES</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -8449,25 +9063,35 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZS2 3900 3771 7410</t>
+          <t>423 0ZS2 3900 3771 7410</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
           <t>154,649</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="M120" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -8516,25 +9140,31 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OBH 6900 3803 4421</t>
+          <t>423 1OBH 6900 3803 4421</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -8583,25 +9213,31 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OBH 6900 3803 4421</t>
+          <t>423 1OBH 6900 3803 4421</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -8650,25 +9286,31 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OBH 6900 3803 4421</t>
+          <t>423 1OBH 6900 3803 4421</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR INTERESES</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -8717,25 +9359,31 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OBH 6900 3803 4421</t>
+          <t>423 1OBH 6900 3803 4421</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -8772,37 +9420,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
           <t>23,130</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="M125" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -8839,37 +9485,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
           <t>23,130</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="M126" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -8906,37 +9550,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
           <t>23,130</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="M127" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR INTERESES</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -8973,37 +9615,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
           <t>23,130</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr">
+      <c r="M128" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr">
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -9052,25 +9692,31 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 13HE 5500 3773 9497</t>
+          <t>423 13HE 5500 3773 9497</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CONMED LOGISTICS SA DE CV </t>
+          <t xml:space="preserve">CONMED LOGISTICS SA DE CV </t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr">
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -9119,25 +9765,31 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 13HE 5500 3773 9497</t>
+          <t>423 13HE 5500 3773 9497</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CONMED LOGISTICS SA DE CV </t>
+          <t xml:space="preserve">CONMED LOGISTICS SA DE CV </t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -9186,25 +9838,31 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 13HE 5500 3773 9497</t>
+          <t>423 13HE 5500 3773 9497</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CONMED LOGISTICS SA DE CV </t>
+          <t xml:space="preserve">CONMED LOGISTICS SA DE CV </t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
         <is>
           <t>ISR retenciones por asimilados a salarios</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr">
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -9253,25 +9911,31 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 13HE 5500 3773 9497</t>
+          <t>423 13HE 5500 3773 9497</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: CONMED LOGISTICS SA DE CV </t>
+          <t xml:space="preserve">CONMED LOGISTICS SA DE CV </t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr">
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -9320,25 +9984,31 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OVB 6400 3803 9455</t>
+          <t>423 1OVB 6400 3803 9455</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr">
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -9387,25 +10057,31 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OVB 6400 3803 9455</t>
+          <t>423 1OVB 6400 3803 9455</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -9454,25 +10130,31 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1OVB 6400 3803 9455</t>
+          <t>423 1OVB 6400 3803 9455</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr">
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -9521,25 +10203,31 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 29H2 1900 3830 5478</t>
+          <t>423 29H2 1900 3830 5478</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr">
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -9588,25 +10276,31 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 29H2 1900 3830 5478</t>
+          <t>423 29H2 1900 3830 5478</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -9655,25 +10349,31 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 29H2 1900 3830 5478</t>
+          <t>423 29H2 1900 3830 5478</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DESOFLEX S A P I DE CV </t>
+          <t xml:space="preserve">DESOFLEX S A P I DE CV </t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -9722,25 +10422,31 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12HD 5000 3772 6469</t>
+          <t>423 12HD 5000 3772 6469</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: FAST LINKS MEXICO SA DE CV </t>
+          <t xml:space="preserve">FAST LINKS MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -9789,25 +10495,31 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12HD 5000 3772 6469</t>
+          <t>423 12HD 5000 3772 6469</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: FAST LINKS MEXICO SA DE CV </t>
+          <t xml:space="preserve">FAST LINKS MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
         <is>
           <t>ISR retenciones por asimilados a salarios</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr">
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -9856,25 +10568,31 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12HD 5000 3772 6469</t>
+          <t>423 12HD 5000 3772 6469</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: FAST LINKS MEXICO SA DE CV </t>
+          <t xml:space="preserve">FAST LINKS MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -9923,25 +10641,35 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1K3I 0500 3808 9409</t>
+          <t>423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
           <t>5,099</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
+      <c r="M142" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas morales</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr">
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -9990,25 +10718,35 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1K3I 0500 3808 9409</t>
+          <t>423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
           <t>5,099</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="M143" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr">
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -10057,25 +10795,35 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1K3I 0500 3808 9409</t>
+          <t>423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
           <t>5,099</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
+      <c r="M144" t="inlineStr">
         <is>
           <t>ISR retenciones por asimilados a salarios</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr">
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -10124,25 +10872,35 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1K3I 0500 3808 9409</t>
+          <t>423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
           <t>5,099</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
+      <c r="M145" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr">
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -10191,25 +10949,35 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1K3I 0500 3808 9409</t>
+          <t>423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA SC </t>
+          <t xml:space="preserve">INTEREXPORTA SC </t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
           <t>5,099</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
+      <c r="M146" t="inlineStr">
         <is>
           <t>IVA simplificado de confianza</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr">
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -10258,25 +11026,31 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 111K 0600 3772 3475</t>
+          <t>423 111K 0600 3772 3475</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MATRAZ LAB S DE RL DE CV </t>
+          <t xml:space="preserve">MATRAZ LAB S DE RL DE CV </t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr">
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -10325,25 +11099,31 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 111K 0600 3772 3475</t>
+          <t>423 111K 0600 3772 3475</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MATRAZ LAB S DE RL DE CV </t>
+          <t xml:space="preserve">MATRAZ LAB S DE RL DE CV </t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -10392,25 +11172,31 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 111K 0600 3772 3475</t>
+          <t>423 111K 0600 3772 3475</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MATRAZ LAB S DE RL DE CV </t>
+          <t xml:space="preserve">MATRAZ LAB S DE RL DE CV </t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -10459,25 +11245,35 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11YG 1500 3772 8407</t>
+          <t>423 11YG 1500 3772 8407</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: O AND P DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">O AND P DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
           <t>104,865</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
+      <c r="M150" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr">
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -10526,25 +11322,35 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11YG 1500 3772 8407</t>
+          <t>423 11YG 1500 3772 8407</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: O AND P DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">O AND P DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
           <t>104,865</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
+      <c r="M151" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr">
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -10593,25 +11399,35 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11YG 1500 3772 8407</t>
+          <t>423 11YG 1500 3772 8407</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: O AND P DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">O AND P DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
           <t>104,865</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
+      <c r="M152" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr">
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -10660,25 +11476,35 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZRS 7200 3771 5454</t>
+          <t>423 0ZRS 7200 3771 5454</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
+          <t xml:space="preserve">OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
           <t>18,642</t>
         </is>
       </c>
-      <c r="L153" t="inlineStr">
+      <c r="M153" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr">
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -10727,25 +11553,35 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZRS 7200 3771 5454</t>
+          <t>423 0ZRS 7200 3771 5454</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
+          <t xml:space="preserve">OPERADORA COMERCIAL INTEGRAL SA DE CV </t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
           <t>18,642</t>
         </is>
       </c>
-      <c r="L154" t="inlineStr">
+      <c r="M154" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr">
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -10794,25 +11630,31 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12FU 3600 3773 9409</t>
+          <t>423 12FU 3600 3773 9409</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: ROM FILM PLASTIC DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">ROM FILM PLASTIC DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr">
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -10861,25 +11703,31 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12FU 3600 3773 9409</t>
+          <t>423 12FU 3600 3773 9409</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: ROM FILM PLASTIC DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">ROM FILM PLASTIC DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr">
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -10928,25 +11776,31 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 12FU 3600 3773 9409</t>
+          <t>423 12FU 3600 3773 9409</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: ROM FILM PLASTIC DE MEXICO SA DE CV </t>
+          <t xml:space="preserve">ROM FILM PLASTIC DE MEXICO SA DE CV </t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr">
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -10995,25 +11849,31 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0YYD 6200 3772 4462</t>
+          <t>423 0YYD 6200 3772 4462</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
+          <t xml:space="preserve">SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr">
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -11062,25 +11922,31 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0YYD 6200 3772 4462</t>
+          <t>423 0YYD 6200 3772 4462</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
+          <t xml:space="preserve">SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr">
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -11129,25 +11995,31 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0YYD 6200 3772 4462</t>
+          <t>423 0YYD 6200 3772 4462</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
+          <t xml:space="preserve">SMARTSOL TECHNOLOGIES S DE RL DE CV </t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr">
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -11184,37 +12056,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: JAIME MORA ALVAREZ </t>
+          <t xml:space="preserve">JAIME MORA ALVAREZ </t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L161" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr">
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET JAIME MORA ALVAREZ ENERO 2023.pdf</t>
         </is>
@@ -11263,25 +12129,31 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0TTU 8200 3771 8480</t>
+          <t>423 0TTU 8200 3771 8480</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MAKO INTERNACIONAL SA DE CV </t>
+          <t xml:space="preserve">MAKO INTERNACIONAL SA DE CV </t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L162" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
         <is>
           <t>ISR RETENCIONES POR SERVICIOS PROFESIONALES/RÉGIMEN SIMPLIFICADO DE CONFIANZA (Complementaria de Obligación no presentada)</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr">
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -11330,25 +12202,31 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0TTU 8200 3771 8480</t>
+          <t>423 0TTU 8200 3771 8480</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MAKO INTERNACIONAL SA DE CV </t>
+          <t xml:space="preserve">MAKO INTERNACIONAL SA DE CV </t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L163" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES (Complementaria de Obligación no presentada)</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr">
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -11397,25 +12275,31 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1AVA 4900 3790 5210</t>
+          <t>423 1AVA 4900 3790 5210</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: MARISELA LARES CHAVEZ </t>
+          <t xml:space="preserve">MARISELA LARES CHAVEZ </t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr">
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET MARISELA LARES CHAVEZ ENERO 2023.pdf</t>
         </is>
@@ -11464,25 +12348,31 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2BCT 0300 3852 2485</t>
+          <t>423 2BCT 0300 3852 2485</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIO BRICKS MARZO 2023.pdf</t>
         </is>
@@ -11531,25 +12421,31 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2BCT 0300 3852 2485</t>
+          <t>423 2BCT 0300 3852 2485</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
+          <t xml:space="preserve">BRICKS OBRAS Y DESARROLLOS COMERCIALES SA DE CV </t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIO BRICKS MARZO 2023.pdf</t>
         </is>
@@ -11598,25 +12494,31 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2U5W 3300 3861 7255</t>
+          <t>423 2U5W 3300 3861 7255</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: SEBASTIAN DUARTE GRIEGO </t>
+          <t xml:space="preserve">SEBASTIAN DUARTE GRIEGO </t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIOS SEBASTIAN DUARTE ABRIL 2023.pdf</t>
         </is>
@@ -11665,25 +12567,31 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 11KZ 1000 3771 6210</t>
+          <t>423 11KZ 1000 3771 6210</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: SEBASTIAN DUARTE GRIEGO </t>
+          <t xml:space="preserve">SEBASTIAN DUARTE GRIEGO </t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L168" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr">
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIOS SEBASTIAN DUARTE ENERO 2023.pdf</t>
         </is>
@@ -11732,25 +12640,31 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1HE6 2900 3803 6296</t>
+          <t>423 1HE6 2900 3803 6296</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: SEBASTIAN DUARTE GRIEGO </t>
+          <t xml:space="preserve">SEBASTIAN DUARTE GRIEGO </t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr">
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIOS SEBASTIAN DUARTE FEBRERO 2023.pdf</t>
         </is>
@@ -11799,25 +12713,31 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 210L 6900 3830 7267</t>
+          <t>423 210L 6900 3830 7267</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: SEBASTIAN DUARTE GRIEGO </t>
+          <t xml:space="preserve">SEBASTIAN DUARTE GRIEGO </t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L170" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr">
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIOS SEBASTIAN DUARTE MARZO 2023.pdf</t>
         </is>
@@ -11854,37 +12774,31 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
+          <t xml:space="preserve">DISTRIBUIDORA DE METALES ZAMSER SA DE CV </t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L171" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
         <is>
           <t>ISR POR PAGOS POR CUENTA DE TERCEROS O RETENCIONES POR ARRENDAMIENTO DE INMUEBLES</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr">
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -11933,25 +12847,31 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1P5K 8300 3804 4424</t>
+          <t>423 1P5K 8300 3804 4424</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L172" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr">
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SALARIOS AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -12000,25 +12920,31 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 1P5K 8300 3804 4424</t>
+          <t>423 1P5K 8300 3804 4424</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
         <is>
           <t>IVA retenciones</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr">
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SALARIOS AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -12067,25 +12993,31 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2A1T 0100 3831 4491</t>
+          <t>423 2A1T 0100 3831 4491</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L174" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr">
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SALARIOS AGROL MARZO 2023.pdf</t>
         </is>
@@ -12134,25 +13066,31 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2WIH 3100 3865 5429</t>
+          <t>423 2WIH 3100 3865 5429</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L175" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr">
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SALRIOS AGROL ABRIL 2023.pdf</t>
         </is>
@@ -12201,25 +13139,31 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZT0 9000 3771 2428</t>
+          <t>423 0ZT0 9000 3771 2428</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SEFRAPESTS SA DE CV </t>
+          <t xml:space="preserve">SEFRAPESTS SA DE CV </t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L176" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
         <is>
           <t>ISR personas morales</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr">
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -12268,25 +13212,31 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 0ZT0 9000 3771 2428</t>
+          <t>423 0ZT0 9000 3771 2428</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: SEFRAPESTS SA DE CV </t>
+          <t xml:space="preserve">SEFRAPESTS SA DE CV </t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr">
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -12335,25 +13285,31 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 100R 3100 3772 8268</t>
+          <t>423 100R 3100 3772 8268</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nombre: ULISES DE DIOS CUADRAS </t>
+          <t xml:space="preserve">ULISES DE DIOS CUADRAS </t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L178" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
         <is>
           <t>ISR simplificado de confianza. Personas físicas</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr">
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR ULISES DE DIOS CUADRAS ENERO 2023.pdf</t>
         </is>
@@ -12390,37 +13346,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: INTEREXPORTA LOGISTICS SC </t>
+          <t xml:space="preserve">INTEREXPORTA LOGISTICS SC </t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
           <t>3,595</t>
         </is>
       </c>
-      <c r="L179" t="inlineStr">
+      <c r="M179" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr">
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -12457,37 +13411,35 @@
           <t xml:space="preserve">2023 </t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NA </t>
-        </is>
-      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: MAKO INTERNACIONAL SA DE CV </t>
+          <t xml:space="preserve">MAKO INTERNACIONAL SA DE CV </t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
           <t>133,461</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr">
+      <c r="M180" t="inlineStr">
         <is>
           <t>IMPUESTO AL VALOR AGREGADO REGIÓN FRONTERIZA (RF)</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr">
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION IVA MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -12536,25 +13488,31 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Linea de Captura : 423 2WIH 3100 3865 5429</t>
+          <t>423 2WIH 3100 3865 5429</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denominación o razón social: AGROL S.P.R. DE R.L. </t>
+          <t xml:space="preserve">AGROL S.P.R. DE R.L. </t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="L181" t="inlineStr">
+          <t>Moral</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
         <is>
           <t>ISR retenciones por salarios</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr">
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION RET AGROL ABRIL 2023L.pdf</t>
         </is>

--- a/Script/Dataframes/df_Declaracion.xlsx
+++ b/Script/Dataframes/df_Declaracion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Periodo de declaracion</t>
+          <t>Periodo de Declaracion</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>total a pagar</t>
+          <t>Total a Pagar</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Vigente hasta</t>
+          <t>Vigente Hasta</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Razon_Social</t>
+          <t>Razon Social</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Impuestoafavor</t>
+          <t>Impuesto a Favor</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -501,10 +501,15 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Pago por Concepto</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Numero de Concepto</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
@@ -553,7 +558,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>423 2L7T 8300 3852 8442</t>
+          <t>0423 2L7T 8300 3852 8442</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,7 +568,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -574,10 +579,15 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>1,791</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION COMP ISR INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -626,7 +636,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>423 1HDY 5200 3802 9249</t>
+          <t>0423 1HDY 5200 3802 9249</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -636,7 +646,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -647,10 +657,15 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>5,767</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION COMP ISR RET SALARIOS SEBASTIAN DUARTE ENERO 2023.pdf</t>
         </is>
@@ -699,7 +714,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>423 2EXU 5900 3852 7270</t>
+          <t>0423 2EXU 5900 3852 7270</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -709,7 +724,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -720,10 +735,15 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>5,299</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION COMP ISR RET SALARIOS SEBASTIAN DUARTE MARZO 2023.pdf</t>
         </is>
@@ -772,7 +792,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>423 2U62 6100 3861 7203</t>
+          <t>0423 2U62 6100 3861 7203</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -782,7 +802,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -793,10 +813,15 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>5,299</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION COMP2 ISR RET SALARIOS SEBASTIAN DUARTE MARZO 2023.pdf</t>
         </is>
@@ -845,7 +870,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>423 11PP 1200 3771 7424</t>
+          <t>0423 11PP 1200 3771 7424</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -855,7 +880,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -866,10 +891,15 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR  IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -918,7 +948,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>423 11PP 1200 3771 7424</t>
+          <t>0423 11PP 1200 3771 7424</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -928,7 +958,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -939,10 +969,15 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>2,937</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR  IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -991,7 +1026,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>423 11PP 1200 3771 7424</t>
+          <t>0423 11PP 1200 3771 7424</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1001,7 +1036,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -1012,10 +1047,15 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>92,692</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR  IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -1064,7 +1104,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>423 29Z4 5700 3836 7411</t>
+          <t>0423 29Z4 5700 3836 7411</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1074,7 +1114,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -1085,10 +1125,15 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>1,765</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -1137,7 +1182,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>423 29Z4 5700 3836 7411</t>
+          <t>0423 29Z4 5700 3836 7411</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1147,7 +1192,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1158,10 +1203,15 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -1208,7 +1258,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1223,10 +1273,15 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL ABRIL 2023.pdf</t>
         </is>
@@ -1273,7 +1328,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1288,10 +1343,15 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL ABRIL 2023.pdf</t>
         </is>
@@ -1338,7 +1398,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1351,12 +1411,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL ABRIL 2023.pdf</t>
         </is>
@@ -1405,7 +1466,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>423 1P69 3600 3804 4497</t>
+          <t>0423 1P69 3600 3804 4497</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1415,7 +1476,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1430,10 +1491,15 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -1482,7 +1548,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>423 1P69 3600 3804 4497</t>
+          <t>0423 1P69 3600 3804 4497</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1492,7 +1558,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1507,10 +1573,15 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -1559,7 +1630,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>423 1P69 3600 3804 4497</t>
+          <t>0423 1P69 3600 3804 4497</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1569,7 +1640,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1584,10 +1655,15 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -1636,7 +1712,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>423 1P69 3600 3804 4497</t>
+          <t>0423 1P69 3600 3804 4497</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1646,7 +1722,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1659,12 +1735,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -1713,7 +1790,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>423 191A 1000 3790 9443</t>
+          <t>0423 191A 1000 3790 9443</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1723,7 +1800,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1738,10 +1815,15 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -1790,7 +1872,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>423 191A 1000 3790 9443</t>
+          <t>0423 191A 1000 3790 9443</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1800,7 +1882,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1815,10 +1897,15 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -1867,7 +1954,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>423 191A 1000 3790 9443</t>
+          <t>0423 191A 1000 3790 9443</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1877,7 +1964,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1892,10 +1979,15 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -1944,7 +2036,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>423 191A 1000 3790 9443</t>
+          <t>0423 191A 1000 3790 9443</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1954,7 +2046,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1967,12 +2059,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -2021,7 +2114,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>423 2ABH 1100 3830 1447</t>
+          <t>0423 2ABH 1100 3830 1447</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2031,7 +2124,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -2042,10 +2135,15 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -2094,7 +2192,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>423 2ABH 1100 3830 1447</t>
+          <t>0423 2ABH 1100 3830 1447</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2104,7 +2202,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -2115,10 +2213,15 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>13,283</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -2167,7 +2270,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>423 2ABH 1100 3830 1447</t>
+          <t>0423 2ABH 1100 3830 1447</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2177,7 +2280,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -2188,10 +2291,15 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -2240,7 +2348,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>423 0ZS0 0900 3771 5427</t>
+          <t>0423 0ZS0 0900 3771 5427</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2250,7 +2358,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -2261,10 +2369,15 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>90,184</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS OBRAS Y DESARROLLOS ENERO 2023.pdf</t>
         </is>
@@ -2313,7 +2426,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>423 0ZS0 0900 3771 5427</t>
+          <t>0423 0ZS0 0900 3771 5427</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2323,7 +2436,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -2334,10 +2447,15 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>13,992</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS OBRAS Y DESARROLLOS ENERO 2023.pdf</t>
         </is>
@@ -2386,7 +2504,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>423 0ZS0 0900 3771 5427</t>
+          <t>0423 0ZS0 0900 3771 5427</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2396,7 +2514,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -2407,10 +2525,15 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>1,326</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA BRICKS OBRAS Y DESARROLLOS ENERO 2023.pdf</t>
         </is>
@@ -2459,7 +2582,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>423 13ID 3100 3773 4479</t>
+          <t>0423 13ID 3100 3773 4479</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2469,7 +2592,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2480,10 +2603,15 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -2532,7 +2660,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>423 13ID 3100 3773 4479</t>
+          <t>0423 13ID 3100 3773 4479</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2542,7 +2670,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2553,10 +2681,15 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>2,420</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -2605,7 +2738,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>423 13ID 3100 3773 4479</t>
+          <t>0423 13ID 3100 3773 4479</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2615,7 +2748,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2626,10 +2759,15 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>23,109</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -2678,7 +2816,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>422 5EEP 9000 3681 9422</t>
+          <t>0422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2688,7 +2826,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2699,10 +2837,15 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr iva cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -2751,7 +2894,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>422 5EEP 9000 3681 9422</t>
+          <t>0422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2761,7 +2904,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2772,10 +2915,15 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>6,119</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr iva cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -2824,7 +2972,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>422 5EEP 9000 3681 9422</t>
+          <t>0422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2834,7 +2982,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2845,10 +2993,15 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr iva cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -2897,7 +3050,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>423 1198 8600 3771 7460</t>
+          <t>0423 1198 8600 3771 7460</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2907,7 +3060,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2918,10 +3071,15 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>68,785</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -2970,7 +3128,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>423 1198 8600 3771 7460</t>
+          <t>0423 1198 8600 3771 7460</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2980,7 +3138,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -2991,10 +3149,15 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>48,385</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -3043,7 +3206,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>423 1198 8600 3771 7460</t>
+          <t>0423 1198 8600 3771 7460</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3053,7 +3216,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
@@ -3064,10 +3227,15 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>8,834</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX ENERO 2023.pdf</t>
         </is>
@@ -3116,7 +3284,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>423 1OUN 1600 3803 4443</t>
+          <t>0423 1OUN 1600 3803 4443</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3126,7 +3294,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
@@ -3137,10 +3305,15 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>38,952</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -3189,7 +3362,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>423 1OUN 1600 3803 4443</t>
+          <t>0423 1OUN 1600 3803 4443</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3199,7 +3372,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -3210,10 +3383,15 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>49,473</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -3262,7 +3440,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>423 1OUN 1600 3803 4443</t>
+          <t>0423 1OUN 1600 3803 4443</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3272,7 +3450,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -3283,10 +3461,15 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>10,526</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -3335,7 +3518,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>423 29GW 7100 3830 1431</t>
+          <t>0423 29GW 7100 3830 1431</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3345,7 +3528,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -3356,10 +3539,15 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>73,792</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -3408,7 +3596,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>423 29GW 7100 3830 1431</t>
+          <t>0423 29GW 7100 3830 1431</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3418,7 +3606,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -3429,10 +3617,15 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>69,030</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -3481,7 +3674,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>423 29GW 7100 3830 1431</t>
+          <t>0423 29GW 7100 3830 1431</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3491,7 +3684,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -3502,10 +3695,15 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>8,970</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -3554,7 +3752,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>423 11WY 3500 3771 3426</t>
+          <t>0423 11WY 3500 3771 3426</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3564,7 +3762,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -3575,10 +3773,15 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>10,277</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -3627,7 +3830,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>423 11WY 3500 3771 3426</t>
+          <t>0423 11WY 3500 3771 3426</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3637,7 +3840,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -3648,10 +3851,15 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>2,274</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -3700,7 +3908,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>423 11WY 3500 3771 3426</t>
+          <t>0423 11WY 3500 3771 3426</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3710,7 +3918,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3721,10 +3929,15 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>6,766</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -3773,7 +3986,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>423 11WY 3500 3771 3426</t>
+          <t>0423 11WY 3500 3771 3426</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3783,7 +3996,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -3794,10 +4007,15 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>7,999</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA DSF ENERO 2023.pdf</t>
         </is>
@@ -3844,7 +4062,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3855,10 +4073,15 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -3905,7 +4128,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3916,10 +4139,15 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -3966,7 +4194,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3977,10 +4205,15 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -4029,7 +4262,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>423 1OAX 0500 3803 7450</t>
+          <t>0423 1OAX 0500 3803 7450</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4039,7 +4272,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -4050,10 +4283,15 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
+          <t>83,867</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FEBRERO 2023.pdf</t>
         </is>
@@ -4102,7 +4340,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>423 1OAX 0500 3803 7450</t>
+          <t>0423 1OAX 0500 3803 7450</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4112,7 +4350,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -4123,10 +4361,15 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
+          <t>15,552</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FEBRERO 2023.pdf</t>
         </is>
@@ -4175,7 +4418,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>423 1OAX 0500 3803 7450</t>
+          <t>0423 1OAX 0500 3803 7450</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4185,7 +4428,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
@@ -4196,10 +4439,15 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
+          <t>2,728</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA FEBRERO 2023.pdf</t>
         </is>
@@ -4248,7 +4496,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>423 21WZ 6900 3845 2429</t>
+          <t>0423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4258,7 +4506,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4273,10 +4521,15 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4325,7 +4578,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>423 21WZ 6900 3845 2429</t>
+          <t>0423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4335,7 +4588,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4350,10 +4603,15 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4402,7 +4660,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>423 21WZ 6900 3845 2429</t>
+          <t>0423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4412,7 +4670,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4427,10 +4685,15 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4479,7 +4742,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>423 21WZ 6900 3845 2429</t>
+          <t>0423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4489,7 +4752,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4504,10 +4767,15 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4556,7 +4824,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>423 21WZ 6900 3845 2429</t>
+          <t>0423 21WZ 6900 3845 2429</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4566,7 +4834,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4581,10 +4849,15 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -4633,7 +4906,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>423 2M76 7900 3852 3465</t>
+          <t>0423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4643,7 +4916,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4658,10 +4931,15 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -4710,7 +4988,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>423 2M76 7900 3852 3465</t>
+          <t>0423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4720,7 +4998,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4735,10 +5013,15 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -4787,7 +5070,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>423 2M76 7900 3852 3465</t>
+          <t>0423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4797,7 +5080,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4812,10 +5095,15 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -4864,7 +5152,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>423 2M76 7900 3852 3465</t>
+          <t>0423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4874,7 +5162,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4889,10 +5177,15 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -4941,7 +5234,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>423 2M76 7900 3852 3465</t>
+          <t>0423 2M76 7900 3852 3465</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4951,7 +5244,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4966,10 +5259,15 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -5016,7 +5314,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -5027,10 +5325,15 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA IVAN ERNESTO VILLAVICENCIO GOMEZ ENERO 2023.pdf</t>
         </is>
@@ -5077,7 +5380,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
@@ -5088,10 +5391,15 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA IVAN ERNESTO VILLAVICENCIO GOMEZ ENERO 2023.pdf</t>
         </is>
@@ -5138,7 +5446,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -5149,10 +5457,15 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA JAIME MORA ALAVAREZ ENERO 2023.pdf</t>
         </is>
@@ -5199,7 +5512,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -5210,10 +5523,15 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA JAIME MORA ALAVAREZ ENERO 2023.pdf</t>
         </is>
@@ -5260,7 +5578,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
@@ -5271,10 +5589,15 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA LA LIEBRE ENERO 2023.pdf</t>
         </is>
@@ -5321,7 +5644,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
@@ -5332,10 +5655,15 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA LA LIEBRE ENERO 2023.pdf</t>
         </is>
@@ -5382,7 +5710,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
@@ -5393,10 +5721,15 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA LA LIEBRE ENERO 2023.pdf</t>
         </is>
@@ -5443,7 +5776,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5458,10 +5791,15 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MARISELA LARES CHAVEZ ENERO 2023.pdf</t>
         </is>
@@ -5508,7 +5846,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5521,12 +5859,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MARISELA LARES CHAVEZ ENERO 2023.pdf</t>
         </is>
@@ -5575,7 +5914,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>423 110R 0700 3772 1489</t>
+          <t>0423 110R 0700 3772 1489</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5585,7 +5924,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
@@ -5596,10 +5935,15 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -5648,7 +5992,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>423 110R 0700 3772 1489</t>
+          <t>0423 110R 0700 3772 1489</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5658,7 +6002,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
@@ -5669,10 +6013,15 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
+          <t>2,591</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -5721,7 +6070,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>423 110R 0700 3772 1489</t>
+          <t>0423 110R 0700 3772 1489</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5731,7 +6080,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
@@ -5742,10 +6091,15 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
+          <t>3,817</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -5794,7 +6148,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>423 11XW 8300 3772 7460</t>
+          <t>0423 11XW 8300 3772 7460</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5804,7 +6158,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -5815,10 +6169,15 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
+          <t>17,748</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -5867,7 +6226,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>423 11XW 8300 3772 7460</t>
+          <t>0423 11XW 8300 3772 7460</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5877,7 +6236,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L76" t="inlineStr"/>
@@ -5888,10 +6247,15 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
+          <t>58,849</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -5940,7 +6304,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>423 11XW 8300 3772 7460</t>
+          <t>0423 11XW 8300 3772 7460</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5950,7 +6314,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
@@ -5961,10 +6325,15 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -6013,7 +6382,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>423 11XW 8300 3772 7460</t>
+          <t>0423 11XW 8300 3772 7460</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -6023,7 +6392,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
@@ -6034,10 +6403,15 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
+          <t>2,373</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -6086,7 +6460,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>423 0ZRO 4200 3771 4455</t>
+          <t>0423 0ZRO 4200 3771 4455</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -6096,7 +6470,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -6107,10 +6481,15 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -6159,7 +6538,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>423 0ZRO 4200 3771 4455</t>
+          <t>0423 0ZRO 4200 3771 4455</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6169,7 +6548,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
@@ -6180,10 +6559,15 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
+          <t>49,006</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -6232,7 +6616,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>423 0ZRO 4200 3771 4455</t>
+          <t>0423 0ZRO 4200 3771 4455</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -6242,7 +6626,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L81" t="inlineStr"/>
@@ -6253,10 +6637,15 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
+          <t>1,960</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -6305,7 +6694,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>423 12S9 4200 3777 3298</t>
+          <t>0423 12S9 4200 3777 3298</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -6315,7 +6704,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
@@ -6326,10 +6715,15 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
+          <t>6,939</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA RIGOBERTO MORA ENERO 2023.pdf</t>
         </is>
@@ -6378,7 +6772,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>423 12S9 4200 3777 3298</t>
+          <t>0423 12S9 4200 3777 3298</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6388,7 +6782,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
@@ -6399,10 +6793,15 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA RIGOBERTO MORA ENERO 2023.pdf</t>
         </is>
@@ -6451,7 +6850,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>423 12F2 3200 3773 4478</t>
+          <t>0423 12F2 3200 3773 4478</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6461,7 +6860,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
@@ -6472,10 +6871,15 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
+          <t>11,411</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -6524,7 +6928,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>423 12F2 3200 3773 4478</t>
+          <t>0423 12F2 3200 3773 4478</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6534,7 +6938,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L85" t="inlineStr"/>
@@ -6545,10 +6949,15 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
+          <t>18,908</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -6597,7 +7006,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>423 12F2 3200 3773 4478</t>
+          <t>0423 12F2 3200 3773 4478</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -6607,7 +7016,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L86" t="inlineStr"/>
@@ -6618,10 +7027,15 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
+          <t>31,476</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -6670,7 +7084,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>423 0ZT2 2300 3771 7490</t>
+          <t>0423 0ZT2 2300 3771 7490</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6680,7 +7094,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -6699,6 +7113,11 @@
         </is>
       </c>
       <c r="O87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -6747,7 +7166,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>423 0ZT2 2300 3771 7490</t>
+          <t>0423 0ZT2 2300 3771 7490</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6757,7 +7176,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6770,12 +7189,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -6824,7 +7244,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>423 0YWX 1800 3772 4401</t>
+          <t>0423 0YWX 1800 3772 4401</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6834,7 +7254,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L89" t="inlineStr"/>
@@ -6845,10 +7265,15 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
+          <t>435,655</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -6897,7 +7322,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>423 0YWX 1800 3772 4401</t>
+          <t>0423 0YWX 1800 3772 4401</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6907,7 +7332,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
@@ -6918,10 +7343,15 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
+          <t>466,675</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="P90" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -6970,7 +7400,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>423 0YWX 1800 3772 4401</t>
+          <t>0423 0YWX 1800 3772 4401</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6980,7 +7410,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L91" t="inlineStr"/>
@@ -6991,10 +7421,15 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -7043,7 +7478,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>423 0YWX 1800 3772 4401</t>
+          <t>0423 0YWX 1800 3772 4401</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7053,7 +7488,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L92" t="inlineStr"/>
@@ -7064,10 +7499,15 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
+          <t>4,100</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -7116,7 +7556,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>423 0XSA 3600 3772 4431</t>
+          <t>0423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7126,7 +7566,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L93" t="inlineStr"/>
@@ -7137,10 +7577,15 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7189,7 +7634,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>423 0XSA 3600 3772 4431</t>
+          <t>0423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7199,7 +7644,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
@@ -7210,10 +7655,15 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
+          <t>12,424</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7262,7 +7712,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>423 0XSA 3600 3772 4431</t>
+          <t>0423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7272,7 +7722,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
@@ -7283,10 +7733,15 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7335,7 +7790,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>423 0XSA 3600 3772 4431</t>
+          <t>0423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7345,7 +7800,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L96" t="inlineStr"/>
@@ -7356,10 +7811,15 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7408,7 +7868,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>423 0XSA 3600 3772 4431</t>
+          <t>0423 0XSA 3600 3772 4431</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7418,7 +7878,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L97" t="inlineStr"/>
@@ -7429,10 +7889,15 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
+          <t>49,783</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR IVA ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -7481,7 +7946,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>423 0TPV 5400 3771 4456</t>
+          <t>0423 0TPV 5400 3771 4456</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7491,7 +7956,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L98" t="inlineStr"/>
@@ -7502,10 +7967,15 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
+          <t>51,366</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -7554,7 +8024,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>423 0TPV 5400 3771 4456</t>
+          <t>0423 0TPV 5400 3771 4456</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -7564,7 +8034,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L99" t="inlineStr"/>
@@ -7575,10 +8045,15 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
+          <t>19,012</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -7627,7 +8102,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>423 0TPV 5400 3771 4456</t>
+          <t>0423 0TPV 5400 3771 4456</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -7637,7 +8112,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L100" t="inlineStr"/>
@@ -7648,10 +8123,15 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
+          <t>2,234</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -7700,7 +8180,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>423 0TPV 5400 3771 4456</t>
+          <t>0423 0TPV 5400 3771 4456</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7710,7 +8190,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L101" t="inlineStr"/>
@@ -7721,10 +8201,15 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
+          <t>7,239</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -7771,7 +8256,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L102" t="inlineStr"/>
@@ -7782,10 +8267,15 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
+      <c r="P102" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR PF JAZMIN ALEJANDRA OJEDA ENERO 2023.pdf</t>
         </is>
@@ -7832,7 +8322,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L103" t="inlineStr"/>
@@ -7843,10 +8333,15 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR PF JAZMIN ALEJANDRA OJEDA ENERO 2023.pdf</t>
         </is>
@@ -7895,7 +8390,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>423 0TA4 4300 3772 1258</t>
+          <t>0423 0TA4 4300 3772 1258</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -7905,7 +8400,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L104" t="inlineStr"/>
@@ -7916,10 +8411,15 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="P104" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR PF TERESA ISABEL CHAVEZ H ENERO 2023.pdf</t>
         </is>
@@ -7968,7 +8468,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>423 0TA4 4300 3772 1258</t>
+          <t>0423 0TA4 4300 3772 1258</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7978,7 +8478,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L105" t="inlineStr"/>
@@ -7989,10 +8489,15 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="P105" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR PF TERESA ISABEL CHAVEZ H ENERO 2023.pdf</t>
         </is>
@@ -8041,7 +8546,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>423 190D 6600 3790 3461</t>
+          <t>0423 190D 6600 3790 3461</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -8051,7 +8556,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L106" t="inlineStr"/>
@@ -8062,10 +8567,15 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
+          <t>1,053</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="P106" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET AGROL SPR DE RL ENERO 2023.pdf</t>
         </is>
@@ -8114,7 +8624,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>423 0ZSC 9100 3771 8246</t>
+          <t>0423 0ZSC 9100 3771 8246</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8124,7 +8634,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L107" t="inlineStr"/>
@@ -8135,10 +8645,15 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
+          <t>1,456</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr">
+      <c r="P107" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET CARLOS ALBERTO HERMOSILLO ENERO 2023.pdf</t>
         </is>
@@ -8187,7 +8702,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>423 0ZRF 7300 3777 4468</t>
+          <t>0423 0ZRF 7300 3777 4468</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -8197,7 +8712,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L108" t="inlineStr"/>
@@ -8208,10 +8723,15 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
+      <c r="P108" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret codigo a enero 2023.pdf</t>
         </is>
@@ -8260,7 +8780,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>423 0ZRF 7300 3777 4468</t>
+          <t>0423 0ZRF 7300 3777 4468</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -8270,7 +8790,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L109" t="inlineStr"/>
@@ -8281,10 +8801,15 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
+          <t>1,080</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
+      <c r="P109" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret codigo a enero 2023.pdf</t>
         </is>
@@ -8333,7 +8858,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>422 5EEP 9000 3681 9422</t>
+          <t>0422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8343,7 +8868,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L110" t="inlineStr"/>
@@ -8354,10 +8879,15 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr">
+      <c r="P110" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -8406,7 +8936,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>422 5EEP 9000 3681 9422</t>
+          <t>0422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8416,7 +8946,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L111" t="inlineStr"/>
@@ -8427,10 +8957,15 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
+          <t>6,119</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="P111" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -8479,7 +9014,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>422 5EEP 9000 3681 9422</t>
+          <t>0422 5EEP 9000 3681 9422</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -8489,7 +9024,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L112" t="inlineStr"/>
@@ -8500,10 +9035,15 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O112" t="inlineStr">
+      <c r="P112" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\declaracion isr ret cuadras asesores diciembre 2022.pdf</t>
         </is>
@@ -8552,7 +9092,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>423 11X5 2400 3771 8469</t>
+          <t>0423 11X5 2400 3771 8469</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -8562,7 +9102,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L113" t="inlineStr"/>
@@ -8573,10 +9113,15 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
+          <t>6,343</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O113" t="inlineStr">
+      <c r="P113" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET DSF ENERO 2023.pdf</t>
         </is>
@@ -8625,7 +9170,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>423 1K3M 1000 3808 9457</t>
+          <t>0423 1K3M 1000 3808 9457</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8635,7 +9180,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L114" t="inlineStr"/>
@@ -8646,10 +9191,15 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O114" t="inlineStr">
+      <c r="P114" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -8698,7 +9248,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>423 21X1 9900 3845 5414</t>
+          <t>0423 21X1 9900 3845 5414</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -8708,7 +9258,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L115" t="inlineStr"/>
@@ -8719,10 +9269,15 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O115" t="inlineStr">
+      <c r="P115" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET INTEREXPORTA FEBRERO 2023.pdf</t>
         </is>
@@ -8769,7 +9324,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L116" t="inlineStr"/>
@@ -8780,10 +9335,15 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O116" t="inlineStr">
+      <c r="P116" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET INTEREXPORTA MARZO 2023.pdf</t>
         </is>
@@ -8832,7 +9392,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>423 0ZS2 3900 3771 7410</t>
+          <t>0423 0ZS2 3900 3771 7410</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8842,7 +9402,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8857,10 +9417,15 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O117" t="inlineStr">
+      <c r="P117" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -8909,7 +9474,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>423 0ZS2 3900 3771 7410</t>
+          <t>0423 0ZS2 3900 3771 7410</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8919,7 +9484,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -8934,10 +9499,15 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O118" t="inlineStr">
+      <c r="P118" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -8986,7 +9556,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>423 0ZS2 3900 3771 7410</t>
+          <t>0423 0ZS2 3900 3771 7410</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8996,7 +9566,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -9011,10 +9581,15 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr">
+      <c r="P119" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -9063,7 +9638,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>423 0ZS2 3900 3771 7410</t>
+          <t>0423 0ZS2 3900 3771 7410</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -9073,7 +9648,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -9086,12 +9661,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O120" t="inlineStr">
+      <c r="P120" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS ENERO 2023.pdf</t>
         </is>
@@ -9140,7 +9716,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>423 1OBH 6900 3803 4421</t>
+          <t>0423 1OBH 6900 3803 4421</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -9150,7 +9726,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L121" t="inlineStr"/>
@@ -9161,10 +9737,15 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O121" t="inlineStr">
+      <c r="P121" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -9213,7 +9794,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>423 1OBH 6900 3803 4421</t>
+          <t>0423 1OBH 6900 3803 4421</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -9223,7 +9804,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L122" t="inlineStr"/>
@@ -9234,10 +9815,15 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
+      <c r="P122" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -9286,7 +9872,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>423 1OBH 6900 3803 4421</t>
+          <t>0423 1OBH 6900 3803 4421</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9296,7 +9882,7 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L123" t="inlineStr"/>
@@ -9307,10 +9893,15 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr">
+      <c r="P123" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -9359,7 +9950,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>423 1OBH 6900 3803 4421</t>
+          <t>0423 1OBH 6900 3803 4421</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -9369,7 +9960,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L124" t="inlineStr"/>
@@ -9380,10 +9971,15 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
+          <t>7,931</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
+      <c r="P124" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS FEBRERO 2023.pdf</t>
         </is>
@@ -9430,7 +10026,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -9445,10 +10041,15 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr">
+      <c r="P125" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -9495,7 +10096,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -9510,10 +10111,15 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr">
+      <c r="P126" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -9560,7 +10166,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -9575,10 +10181,15 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr">
+      <c r="P127" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -9625,7 +10236,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -9638,12 +10249,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O128" t="inlineStr">
+      <c r="P128" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA BRICKS MARZO 2023.pdf</t>
         </is>
@@ -9692,7 +10304,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>423 13HE 5500 3773 9497</t>
+          <t>0423 13HE 5500 3773 9497</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -9702,7 +10314,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L129" t="inlineStr"/>
@@ -9713,10 +10325,15 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
+          <t>18,937</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O129" t="inlineStr">
+      <c r="P129" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -9765,7 +10382,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>423 13HE 5500 3773 9497</t>
+          <t>0423 13HE 5500 3773 9497</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -9775,7 +10392,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L130" t="inlineStr"/>
@@ -9786,10 +10403,15 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
+          <t>19,634</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O130" t="inlineStr">
+      <c r="P130" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -9838,7 +10460,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>423 13HE 5500 3773 9497</t>
+          <t>0423 13HE 5500 3773 9497</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -9848,7 +10470,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L131" t="inlineStr"/>
@@ -9859,10 +10481,15 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
+          <t>2,570</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O131" t="inlineStr">
+      <c r="P131" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -9911,7 +10538,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>423 13HE 5500 3773 9497</t>
+          <t>0423 13HE 5500 3773 9497</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -9921,7 +10548,7 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L132" t="inlineStr"/>
@@ -9932,10 +10559,15 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
+          <t>2,996</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O132" t="inlineStr">
+      <c r="P132" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA CONMED LOGISTICS ENERO 2023.pdf</t>
         </is>
@@ -9984,7 +10616,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>423 1OVB 6400 3803 9455</t>
+          <t>0423 1OVB 6400 3803 9455</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9994,7 +10626,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L133" t="inlineStr"/>
@@ -10005,10 +10637,15 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
+          <t>3,039</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr">
+      <c r="P133" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -10057,7 +10694,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>423 1OVB 6400 3803 9455</t>
+          <t>0423 1OVB 6400 3803 9455</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -10067,7 +10704,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L134" t="inlineStr"/>
@@ -10078,10 +10715,15 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
+          <t>2,937</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O134" t="inlineStr">
+      <c r="P134" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -10130,7 +10772,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>423 1OVB 6400 3803 9455</t>
+          <t>0423 1OVB 6400 3803 9455</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -10140,7 +10782,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L135" t="inlineStr"/>
@@ -10151,10 +10793,15 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
+          <t>92,303</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O135" t="inlineStr">
+      <c r="P135" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX FEBRERO 2023.pdf</t>
         </is>
@@ -10203,7 +10850,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>423 29H2 1900 3830 5478</t>
+          <t>0423 29H2 1900 3830 5478</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10213,7 +10860,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L136" t="inlineStr"/>
@@ -10224,10 +10871,15 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
+          <t>1,149</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O136" t="inlineStr">
+      <c r="P136" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -10276,7 +10928,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>423 29H2 1900 3830 5478</t>
+          <t>0423 29H2 1900 3830 5478</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -10286,7 +10938,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L137" t="inlineStr"/>
@@ -10297,10 +10949,15 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
+          <t>2,937</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O137" t="inlineStr">
+      <c r="P137" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -10349,7 +11006,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>423 29H2 1900 3830 5478</t>
+          <t>0423 29H2 1900 3830 5478</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -10359,7 +11016,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L138" t="inlineStr"/>
@@ -10370,10 +11027,15 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
+          <t>127,468</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O138" t="inlineStr">
+      <c r="P138" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA DESOFLEX MARZO 2023.pdf</t>
         </is>
@@ -10422,7 +11084,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>423 12HD 5000 3772 6469</t>
+          <t>0423 12HD 5000 3772 6469</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -10432,7 +11094,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L139" t="inlineStr"/>
@@ -10443,10 +11105,15 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O139" t="inlineStr">
+      <c r="P139" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -10495,7 +11162,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>423 12HD 5000 3772 6469</t>
+          <t>0423 12HD 5000 3772 6469</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -10505,7 +11172,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L140" t="inlineStr"/>
@@ -10516,10 +11183,15 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O140" t="inlineStr">
+      <c r="P140" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -10568,7 +11240,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>423 12HD 5000 3772 6469</t>
+          <t>0423 12HD 5000 3772 6469</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -10578,7 +11250,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L141" t="inlineStr"/>
@@ -10589,10 +11261,15 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
+          <t>13,341</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr">
+      <c r="P141" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA FAST LINKS MEXICO ENERO 2023.pdf</t>
         </is>
@@ -10641,7 +11318,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>423 1K3I 0500 3808 9409</t>
+          <t>0423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -10651,7 +11328,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -10666,10 +11343,15 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
+          <t>2,430</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O142" t="inlineStr">
+      <c r="P142" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -10718,7 +11400,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>423 1K3I 0500 3808 9409</t>
+          <t>0423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -10728,7 +11410,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -10743,10 +11425,15 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O143" t="inlineStr">
+      <c r="P143" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -10795,7 +11482,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>423 1K3I 0500 3808 9409</t>
+          <t>0423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -10805,7 +11492,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -10820,10 +11507,15 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O144" t="inlineStr">
+      <c r="P144" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -10872,7 +11564,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>423 1K3I 0500 3808 9409</t>
+          <t>0423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -10882,7 +11574,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -10897,10 +11589,15 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O145" t="inlineStr">
+      <c r="P145" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -10949,7 +11646,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>423 1K3I 0500 3808 9409</t>
+          <t>0423 1K3I 0500 3808 9409</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -10959,7 +11656,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -10974,10 +11671,15 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O146" t="inlineStr">
+      <c r="P146" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -11026,7 +11728,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>423 111K 0600 3772 3475</t>
+          <t>0423 111K 0600 3772 3475</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -11036,7 +11738,7 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L147" t="inlineStr"/>
@@ -11047,10 +11749,15 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O147" t="inlineStr">
+      <c r="P147" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -11099,7 +11806,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>423 111K 0600 3772 3475</t>
+          <t>0423 111K 0600 3772 3475</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -11109,7 +11816,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L148" t="inlineStr"/>
@@ -11120,10 +11827,15 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
+          <t>1,620</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr">
+      <c r="P148" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -11172,7 +11884,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>423 111K 0600 3772 3475</t>
+          <t>0423 111K 0600 3772 3475</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -11182,7 +11894,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L149" t="inlineStr"/>
@@ -11193,10 +11905,15 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O149" t="inlineStr">
+      <c r="P149" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA MATRAZ LAB ENERO 2023.pdf</t>
         </is>
@@ -11245,7 +11962,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>423 11YG 1500 3772 8407</t>
+          <t>0423 11YG 1500 3772 8407</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -11255,7 +11972,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -11270,10 +11987,15 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr">
+      <c r="P150" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -11322,7 +12044,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>423 11YG 1500 3772 8407</t>
+          <t>0423 11YG 1500 3772 8407</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -11332,7 +12054,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -11347,10 +12069,15 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O151" t="inlineStr">
+      <c r="P151" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -11399,7 +12126,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>423 11YG 1500 3772 8407</t>
+          <t>0423 11YG 1500 3772 8407</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -11409,7 +12136,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -11422,12 +12149,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr">
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O152" t="inlineStr">
+      <c r="P152" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA O AND P DE MEXICO ENERO 2023.pdf</t>
         </is>
@@ -11476,7 +12204,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>423 0ZRS 7200 3771 5454</t>
+          <t>0423 0ZRS 7200 3771 5454</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -11486,7 +12214,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -11501,10 +12229,15 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O153" t="inlineStr">
+      <c r="P153" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -11553,7 +12286,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>423 0ZRS 7200 3771 5454</t>
+          <t>0423 0ZRS 7200 3771 5454</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -11563,7 +12296,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
@@ -11576,12 +12309,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr">
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O154" t="inlineStr">
+      <c r="P154" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA OPERADORA COMERCIAL ENERO 2023.pdf</t>
         </is>
@@ -11630,7 +12364,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>423 12FU 3600 3773 9409</t>
+          <t>0423 12FU 3600 3773 9409</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -11640,7 +12374,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L155" t="inlineStr"/>
@@ -11651,10 +12385,15 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O155" t="inlineStr">
+      <c r="P155" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -11703,7 +12442,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>423 12FU 3600 3773 9409</t>
+          <t>0423 12FU 3600 3773 9409</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -11713,7 +12452,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L156" t="inlineStr"/>
@@ -11724,10 +12463,15 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
+          <t>26,644</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O156" t="inlineStr">
+      <c r="P156" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -11776,7 +12520,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>423 12FU 3600 3773 9409</t>
+          <t>0423 12FU 3600 3773 9409</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -11786,7 +12530,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L157" t="inlineStr"/>
@@ -11797,10 +12541,15 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr">
+      <c r="P157" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA ROM FILM PLASTIC ENERO 2023.pdf</t>
         </is>
@@ -11849,7 +12598,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>423 0YYD 6200 3772 4462</t>
+          <t>0423 0YYD 6200 3772 4462</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -11859,7 +12608,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L158" t="inlineStr"/>
@@ -11870,10 +12619,15 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
+          <t>1,751</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O158" t="inlineStr">
+      <c r="P158" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -11922,7 +12676,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>423 0YYD 6200 3772 4462</t>
+          <t>0423 0YYD 6200 3772 4462</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -11932,7 +12686,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L159" t="inlineStr"/>
@@ -11943,10 +12697,15 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O159" t="inlineStr">
+      <c r="P159" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -11995,7 +12754,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>423 0YYD 6200 3772 4462</t>
+          <t>0423 0YYD 6200 3772 4462</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -12005,7 +12764,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L160" t="inlineStr"/>
@@ -12016,10 +12775,15 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
+          <t>97,306</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O160" t="inlineStr">
+      <c r="P160" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET IVA SMARTSOL TECHNOLOGIES ENERO 2023.pdf</t>
         </is>
@@ -12066,7 +12830,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L161" t="inlineStr"/>
@@ -12077,10 +12841,15 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O161" t="inlineStr">
+      <c r="P161" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET JAIME MORA ALVAREZ ENERO 2023.pdf</t>
         </is>
@@ -12129,7 +12898,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>423 0TTU 8200 3771 8480</t>
+          <t>0423 0TTU 8200 3771 8480</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -12139,7 +12908,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L162" t="inlineStr"/>
@@ -12150,10 +12919,15 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O162" t="inlineStr">
+      <c r="P162" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -12202,7 +12976,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>423 0TTU 8200 3771 8480</t>
+          <t>0423 0TTU 8200 3771 8480</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -12212,7 +12986,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L163" t="inlineStr"/>
@@ -12223,10 +12997,15 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
+          <t>5,888</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O163" t="inlineStr">
+      <c r="P163" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -12275,7 +13054,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>423 1AVA 4900 3790 5210</t>
+          <t>0423 1AVA 4900 3790 5210</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -12285,7 +13064,7 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L164" t="inlineStr"/>
@@ -12296,10 +13075,15 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O164" t="inlineStr">
+      <c r="P164" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET MARISELA LARES CHAVEZ ENERO 2023.pdf</t>
         </is>
@@ -12348,7 +13132,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>423 2BCT 0300 3852 2485</t>
+          <t>0423 2BCT 0300 3852 2485</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -12358,7 +13142,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L165" t="inlineStr"/>
@@ -12369,10 +13153,15 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
+          <t>13,478</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O165" t="inlineStr">
+      <c r="P165" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIO BRICKS MARZO 2023.pdf</t>
         </is>
@@ -12421,7 +13210,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>423 2BCT 0300 3852 2485</t>
+          <t>0423 2BCT 0300 3852 2485</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -12431,7 +13220,7 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L166" t="inlineStr"/>
@@ -12442,10 +13231,15 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O166" t="inlineStr">
+      <c r="P166" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIO BRICKS MARZO 2023.pdf</t>
         </is>
@@ -12494,7 +13288,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>423 2U5W 3300 3861 7255</t>
+          <t>0423 2U5W 3300 3861 7255</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -12504,7 +13298,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L167" t="inlineStr"/>
@@ -12515,10 +13309,15 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
+          <t>4,762</t>
+        </is>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O167" t="inlineStr">
+      <c r="P167" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIOS SEBASTIAN DUARTE ABRIL 2023.pdf</t>
         </is>
@@ -12567,7 +13366,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>423 11KZ 1000 3771 6210</t>
+          <t>0423 11KZ 1000 3771 6210</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -12577,7 +13376,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L168" t="inlineStr"/>
@@ -12588,10 +13387,15 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
+          <t>5,683</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O168" t="inlineStr">
+      <c r="P168" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIOS SEBASTIAN DUARTE ENERO 2023.pdf</t>
         </is>
@@ -12640,7 +13444,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>423 1HE6 2900 3803 6296</t>
+          <t>0423 1HE6 2900 3803 6296</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -12650,7 +13454,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L169" t="inlineStr"/>
@@ -12661,10 +13465,15 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
+          <t>5,683</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr">
+      <c r="P169" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIOS SEBASTIAN DUARTE FEBRERO 2023.pdf</t>
         </is>
@@ -12713,7 +13522,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>423 210L 6900 3830 7267</t>
+          <t>0423 210L 6900 3830 7267</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -12723,7 +13532,7 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L170" t="inlineStr"/>
@@ -12734,10 +13543,15 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
+          <t>5,222</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O170" t="inlineStr">
+      <c r="P170" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET SALARIOS SEBASTIAN DUARTE MARZO 2023.pdf</t>
         </is>
@@ -12784,7 +13598,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L171" t="inlineStr"/>
@@ -12795,10 +13609,15 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O171" t="inlineStr">
+      <c r="P171" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR RET ZAMSER ENERO 2023.pdf</t>
         </is>
@@ -12847,7 +13666,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>423 1P5K 8300 3804 4424</t>
+          <t>0423 1P5K 8300 3804 4424</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -12857,7 +13676,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L172" t="inlineStr"/>
@@ -12868,10 +13687,15 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
+          <t>2,081</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O172" t="inlineStr">
+      <c r="P172" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SALARIOS AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -12920,7 +13744,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>423 1P5K 8300 3804 4424</t>
+          <t>0423 1P5K 8300 3804 4424</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -12930,7 +13754,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L173" t="inlineStr"/>
@@ -12941,10 +13765,15 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O173" t="inlineStr">
+      <c r="P173" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SALARIOS AGROL FEBRERO 2023.pdf</t>
         </is>
@@ -12993,7 +13822,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>423 2A1T 0100 3831 4491</t>
+          <t>0423 2A1T 0100 3831 4491</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -13003,7 +13832,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L174" t="inlineStr"/>
@@ -13014,10 +13843,15 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
+          <t>2,237</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O174" t="inlineStr">
+      <c r="P174" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SALARIOS AGROL MARZO 2023.pdf</t>
         </is>
@@ -13066,7 +13900,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>423 2WIH 3100 3865 5429</t>
+          <t>0423 2WIH 3100 3865 5429</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -13076,7 +13910,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L175" t="inlineStr"/>
@@ -13087,10 +13921,15 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
+          <t>2,230</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr">
+      <c r="P175" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SALRIOS AGROL ABRIL 2023.pdf</t>
         </is>
@@ -13139,7 +13978,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>423 0ZT0 9000 3771 2428</t>
+          <t>0423 0ZT0 9000 3771 2428</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -13149,7 +13988,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L176" t="inlineStr"/>
@@ -13160,10 +13999,15 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
+          <t>7,988</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O176" t="inlineStr">
+      <c r="P176" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -13212,7 +14056,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>423 0ZT0 9000 3771 2428</t>
+          <t>0423 0ZT0 9000 3771 2428</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -13222,7 +14066,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L177" t="inlineStr"/>
@@ -13233,10 +14077,15 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
+          <t>4,749</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O177" t="inlineStr">
+      <c r="P177" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR SEFRAPESTS ENERO 2023.pdf</t>
         </is>
@@ -13285,7 +14134,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>423 100R 3100 3772 8268</t>
+          <t>0423 100R 3100 3772 8268</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -13295,7 +14144,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Fisica</t>
         </is>
       </c>
       <c r="L178" t="inlineStr"/>
@@ -13306,10 +14155,15 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
+          <t>2,273</t>
+        </is>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O178" t="inlineStr">
+      <c r="P178" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION ISR ULISES DE DIOS CUADRAS ENERO 2023.pdf</t>
         </is>
@@ -13356,7 +14210,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -13369,12 +14223,13 @@
           <t>IMPUESTO AL VALOR AGREGADO</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr">
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O179" t="inlineStr">
+      <c r="P179" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION IVA INTEREXPORTA ENERO 2023.pdf</t>
         </is>
@@ -13421,7 +14276,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -13434,12 +14289,13 @@
           <t>IMPUESTO AL VALOR AGREGADO REGIÓN FRONTERIZA (RF)</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr">
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O180" t="inlineStr">
+      <c r="P180" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION IVA MAKO INTERNACIONAL SA DE CV ENERO 2023.pdf</t>
         </is>
@@ -13488,7 +14344,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>423 2WIH 3100 3865 5429</t>
+          <t>0423 2WIH 3100 3865 5429</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -13498,7 +14354,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>Moral</t>
+          <t>Persona Moral</t>
         </is>
       </c>
       <c r="L181" t="inlineStr"/>
@@ -13509,10 +14365,15 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
+          <t>2,230</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O181" t="inlineStr">
+      <c r="P181" t="inlineStr">
         <is>
           <t>C:\Users\victo\Documents\Proyectos\Automatizacion-Cuadras\PDF\DECLARACION RET AGROL ABRIL 2023L.pdf</t>
         </is>

--- a/Script/Dataframes/df_Declaracion.xlsx
+++ b/Script/Dataframes/df_Declaracion.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
